--- a/biology/Zoologie/Aeshna_theobaldi/Aeshna_theobaldi.xlsx
+++ b/biology/Zoologie/Aeshna_theobaldi/Aeshna_theobaldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeschna theobaldi
 Aeshna theobaldi est une espèce fossile de libellule du genre Aeshna, de la famille des Aeshnidae et de la sous-famille Aeshninae, dans l'ordre des Odonates.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aeshna theobaldi est décrite en 1935 par le paléontologue français Louis Émile Piton (1909-1945)[1]. 
-Fossiles
-Cet holotype de l'ère Cénozoïque, et de l'époque Pléistocène (2,58 à 0,011 7 Ma) fait partie de la collection personnelle du docteur Louis Émile Piton et vient du lac Chambon dans le Puy-de-Dôme, en Auvergne[2]. 
-Étymologie
-Cette espèce est dédiée à Nicolas Théobald, dont une parution sur l'espèce en question est commune[3].
-Renommage
-L'espèce Aeschna theobaldi est renommée en Aeshna theobaldi par A. Nel et al. en 1994[4],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aeshna theobaldi est décrite en 1935 par le paléontologue français Louis Émile Piton (1909-1945). 
 </t>
         </is>
       </c>
@@ -546,13 +554,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype de l'ère Cénozoïque, et de l'époque Pléistocène (2,58 à 0,011 7 Ma) fait partie de la collection personnelle du docteur Louis Émile Piton et vient du lac Chambon dans le Puy-de-Dôme, en Auvergne. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aeshna_theobaldi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_theobaldi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est dédiée à Nicolas Théobald, dont une parution sur l'espèce en question est commune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aeshna_theobaldi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_theobaldi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aeschna theobaldi est renommée en Aeshna theobaldi par A. Nel et al. en 1994,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aeshna_theobaldi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_theobaldi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-« Empreinte et contre-empreinte remarquables d'une aile inférieure d'Aeschna. Aile relativement étroite, bord anal légèrement excavé. Stigma médiocrement large. Secteur nodal bifurqué ne faisant pas de courbe brusque au niveau du stigma. Espace médian libre. Triangle discoïdal traversé par 3 nervules. Secteurs de l'arculus sessiles. Espace sous-médian traversé de plusieurs nervules. Membranule assez grande. 11 nervures anténodales. Ailes à réticulation peu serrée. Cette espèce se rapproche de Aeschna juncea L. , forme de l'Europe tempérée, d'Asie centrale et septentrionale et d'Amérique du Nord. »[3].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Empreinte et contre-empreinte remarquables d'une aile inférieure d'Aeschna. Aile relativement étroite, bord anal légèrement excavé. Stigma médiocrement large. Secteur nodal bifurqué ne faisant pas de courbe brusque au niveau du stigma. Espace médian libre. Triangle discoïdal traversé par 3 nervules. Secteurs de l'arculus sessiles. Espace sous-médian traversé de plusieurs nervules. Membranule assez grande. 11 nervures anténodales. Ailes à réticulation peu serrée. Cette espèce se rapproche de Aeschna juncea L. , forme de l'Europe tempérée, d'Asie centrale et septentrionale et d'Amérique du Nord. ».
 </t>
         </is>
       </c>
